--- a/biology/Médecine/Hôpital_d'Ottawa/Hôpital_d'Ottawa.xlsx
+++ b/biology/Médecine/Hôpital_d'Ottawa/Hôpital_d'Ottawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Ottawa</t>
+          <t>Hôpital_d'Ottawa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital d'Ottawa est un hôpital canadien situé à Ottawa, en Ontario. Il est affilié à l'Université d'Ottawa et géré au titre d'une association à but non lucratif.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Ottawa</t>
+          <t>Hôpital_d'Ottawa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier hôpital général d'Ottawa fut fondé en 1845 par Élisabeth Bruyère et les Sœurs grises de Montréal. Elles furent aidées par une poignée de médecins dont notamment l'ancien maire d'Ottawa et député franco-ontarien Pierre Saint Jean qui instaura le bilinguisme dès le début.
 L'hôpital moderne d'Ottawa est né dans les années 1990, à la suite du regroupement, par le premier ministre de l'Ontario, Mike Harris, des quatre anciens hôpitaux d'Ottawa, l'hôpital Grace, l'hôpital Riverside, l'hôpital Civic d'Ottawa et l'hôpital Général d'Ottawa.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Ottawa</t>
+          <t>Hôpital_d'Ottawa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Présentation générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital d'Ottawa offre 1195 lits.
 Le centre hospitalier d'Ottawa est également un campus universitaire affilié à l'Université d'Ottawa et qui accueille des bâtiments universitaires ainsi que l'Institut des yeux et le Centre hospitalier pour enfants de l’est de l’Ontario qui est un établissement de soins pédiatriques et un centre de recherche médical.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Ottawa</t>
+          <t>Hôpital_d'Ottawa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Personnalités célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Durant la Seconde Guerre mondiale, la Famille royale néerlandaise trouva refuge au Canada. La reine Juliana des Pays-Bas donna naissance à Margriet des Pays-Bas. La maternité fut alors temporairement déclarée extraterritoriale par le gouvernement canadien, afin que la princesse n'ait que la nationalité néerlandaise (et non, en plus, la nationalité canadienne, en vertu du droit du sol).
 L'acteur et réalisateur canadien Dan Aykroyd y est né.
